--- a/supporting_information/File F1.xlsx
+++ b/supporting_information/File F1.xlsx
@@ -5,16 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Labels" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Label Description" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="data_conditional_prob" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="data_graph_theoretic_measures" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="data_spad" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="data_morph+pvec" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Block Connection Prob" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="labels" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="label_description" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="prob_dist" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="abs_drift" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="spatial_dist" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="morph_pvec" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="block_prob" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1191,10 +1191,10 @@
     <t xml:space="preserve">day 9</t>
   </si>
   <si>
-    <t xml:space="preserve">Aprior prob.</t>
+    <t xml:space="preserve">Prior prob.</t>
   </si>
   <si>
-    <t xml:space="preserve">Prob. across discarded neurons</t>
+    <t xml:space="preserve">Prior prob. across discarded neurons</t>
   </si>
   <si>
     <t xml:space="preserve">No. of Neurons</t>
@@ -2251,12 +2251,12 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="22.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="90.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="56.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="40.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="72.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="75.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="35.71"/>
@@ -4982,10 +4982,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AS64"/>
+  <dimension ref="A1:AKS64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y66" activeCellId="0" sqref="Y66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12686,6 +12686,8 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0"/>
+      <c r="B59" s="0"/>
       <c r="C59" s="0"/>
       <c r="D59" s="0"/>
       <c r="E59" s="0"/>
@@ -12693,139 +12695,1111 @@
       <c r="G59" s="0"/>
       <c r="H59" s="0"/>
       <c r="I59" s="0"/>
+      <c r="J59" s="0"/>
+      <c r="K59" s="0"/>
+      <c r="L59" s="0"/>
+      <c r="M59" s="0"/>
+      <c r="N59" s="0"/>
+      <c r="O59" s="0"/>
+      <c r="P59" s="0"/>
+      <c r="Q59" s="0"/>
+      <c r="R59" s="0"/>
+      <c r="S59" s="0"/>
+      <c r="T59" s="0"/>
+      <c r="U59" s="0"/>
+      <c r="V59" s="0"/>
+      <c r="W59" s="0"/>
+      <c r="X59" s="0"/>
+      <c r="Y59" s="0"/>
+      <c r="Z59" s="0"/>
+      <c r="AA59" s="0"/>
+      <c r="AB59" s="0"/>
+      <c r="AC59" s="0"/>
+      <c r="AD59" s="0"/>
+      <c r="AE59" s="0"/>
+      <c r="AF59" s="0"/>
+      <c r="AG59" s="0"/>
+      <c r="AH59" s="0"/>
+      <c r="AI59" s="0"/>
+      <c r="AJ59" s="0"/>
+      <c r="AK59" s="0"/>
+      <c r="AL59" s="0"/>
+      <c r="AM59" s="0"/>
+      <c r="AN59" s="0"/>
+      <c r="AO59" s="0"/>
+      <c r="AP59" s="0"/>
+      <c r="AQ59" s="0"/>
+      <c r="AR59" s="0"/>
+      <c r="AS59" s="0"/>
+      <c r="AT59" s="0"/>
+      <c r="AU59" s="0"/>
+      <c r="AV59" s="0"/>
+      <c r="AW59" s="0"/>
+      <c r="AX59" s="0"/>
+      <c r="AY59" s="0"/>
+      <c r="AZ59" s="0"/>
+      <c r="BA59" s="0"/>
+      <c r="BB59" s="0"/>
+      <c r="BC59" s="0"/>
+      <c r="BD59" s="0"/>
+      <c r="BE59" s="0"/>
+      <c r="BF59" s="0"/>
+      <c r="BG59" s="0"/>
+      <c r="BH59" s="0"/>
+      <c r="BI59" s="0"/>
+      <c r="BJ59" s="0"/>
+      <c r="BK59" s="0"/>
+      <c r="BL59" s="0"/>
+      <c r="BM59" s="0"/>
+      <c r="BN59" s="0"/>
+      <c r="BO59" s="0"/>
+      <c r="BP59" s="0"/>
+      <c r="BQ59" s="0"/>
+      <c r="BR59" s="0"/>
+      <c r="BS59" s="0"/>
+      <c r="BT59" s="0"/>
+      <c r="BU59" s="0"/>
+      <c r="BV59" s="0"/>
+      <c r="BW59" s="0"/>
+      <c r="BX59" s="0"/>
+      <c r="BY59" s="0"/>
+      <c r="BZ59" s="0"/>
+      <c r="CA59" s="0"/>
+      <c r="CB59" s="0"/>
+      <c r="CC59" s="0"/>
+      <c r="CD59" s="0"/>
+      <c r="CE59" s="0"/>
+      <c r="CF59" s="0"/>
+      <c r="CG59" s="0"/>
+      <c r="CH59" s="0"/>
+      <c r="CI59" s="0"/>
+      <c r="CJ59" s="0"/>
+      <c r="CK59" s="0"/>
+      <c r="CL59" s="0"/>
+      <c r="CM59" s="0"/>
+      <c r="CN59" s="0"/>
+      <c r="CO59" s="0"/>
+      <c r="CP59" s="0"/>
+      <c r="CQ59" s="0"/>
+      <c r="CR59" s="0"/>
+      <c r="CS59" s="0"/>
+      <c r="CT59" s="0"/>
+      <c r="CU59" s="0"/>
+      <c r="CV59" s="0"/>
+      <c r="CW59" s="0"/>
+      <c r="CX59" s="0"/>
+      <c r="CY59" s="0"/>
+      <c r="CZ59" s="0"/>
+      <c r="DA59" s="0"/>
+      <c r="DB59" s="0"/>
+      <c r="DC59" s="0"/>
+      <c r="DD59" s="0"/>
+      <c r="DE59" s="0"/>
+      <c r="DF59" s="0"/>
+      <c r="DG59" s="0"/>
+      <c r="DH59" s="0"/>
+      <c r="DI59" s="0"/>
+      <c r="DJ59" s="0"/>
+      <c r="DK59" s="0"/>
+      <c r="DL59" s="0"/>
+      <c r="DM59" s="0"/>
+      <c r="DN59" s="0"/>
+      <c r="DO59" s="0"/>
+      <c r="DP59" s="0"/>
+      <c r="DQ59" s="0"/>
+      <c r="DR59" s="0"/>
+      <c r="DS59" s="0"/>
+      <c r="DT59" s="0"/>
+      <c r="DU59" s="0"/>
+      <c r="DV59" s="0"/>
+      <c r="DW59" s="0"/>
+      <c r="DX59" s="0"/>
+      <c r="DY59" s="0"/>
+      <c r="DZ59" s="0"/>
+      <c r="EA59" s="0"/>
+      <c r="EB59" s="0"/>
+      <c r="EC59" s="0"/>
+      <c r="ED59" s="0"/>
+      <c r="EE59" s="0"/>
+      <c r="EF59" s="0"/>
+      <c r="EG59" s="0"/>
+      <c r="EH59" s="0"/>
+      <c r="EI59" s="0"/>
+      <c r="EJ59" s="0"/>
+      <c r="EK59" s="0"/>
+      <c r="EL59" s="0"/>
+      <c r="EM59" s="0"/>
+      <c r="EN59" s="0"/>
+      <c r="EO59" s="0"/>
+      <c r="EP59" s="0"/>
+      <c r="EQ59" s="0"/>
+      <c r="ER59" s="0"/>
+      <c r="ES59" s="0"/>
+      <c r="ET59" s="0"/>
+      <c r="EU59" s="0"/>
+      <c r="EV59" s="0"/>
+      <c r="EW59" s="0"/>
+      <c r="EX59" s="0"/>
+      <c r="EY59" s="0"/>
+      <c r="EZ59" s="0"/>
+      <c r="FA59" s="0"/>
+      <c r="FB59" s="0"/>
+      <c r="FC59" s="0"/>
+      <c r="FD59" s="0"/>
+      <c r="FE59" s="0"/>
+      <c r="FF59" s="0"/>
+      <c r="FG59" s="0"/>
+      <c r="FH59" s="0"/>
+      <c r="FI59" s="0"/>
+      <c r="FJ59" s="0"/>
+      <c r="FK59" s="0"/>
+      <c r="FL59" s="0"/>
+      <c r="FM59" s="0"/>
+      <c r="FN59" s="0"/>
+      <c r="FO59" s="0"/>
+      <c r="FP59" s="0"/>
+      <c r="FQ59" s="0"/>
+      <c r="FR59" s="0"/>
+      <c r="FS59" s="0"/>
+      <c r="FT59" s="0"/>
+      <c r="FU59" s="0"/>
+      <c r="FV59" s="0"/>
+      <c r="FW59" s="0"/>
+      <c r="FX59" s="0"/>
+      <c r="FY59" s="0"/>
+      <c r="FZ59" s="0"/>
+      <c r="GA59" s="0"/>
+      <c r="GB59" s="0"/>
+      <c r="GC59" s="0"/>
+      <c r="GD59" s="0"/>
+      <c r="GE59" s="0"/>
+      <c r="GF59" s="0"/>
+      <c r="GG59" s="0"/>
+      <c r="GH59" s="0"/>
+      <c r="GI59" s="0"/>
+      <c r="GJ59" s="0"/>
+      <c r="GK59" s="0"/>
+      <c r="GL59" s="0"/>
+      <c r="GM59" s="0"/>
+      <c r="GN59" s="0"/>
+      <c r="GO59" s="0"/>
+      <c r="GP59" s="0"/>
+      <c r="GQ59" s="0"/>
+      <c r="GR59" s="0"/>
+      <c r="GS59" s="0"/>
+      <c r="GT59" s="0"/>
+      <c r="GU59" s="0"/>
+      <c r="GV59" s="0"/>
+      <c r="GW59" s="0"/>
+      <c r="GX59" s="0"/>
+      <c r="GY59" s="0"/>
+      <c r="GZ59" s="0"/>
+      <c r="HA59" s="0"/>
+      <c r="HB59" s="0"/>
+      <c r="HC59" s="0"/>
+      <c r="HD59" s="0"/>
+      <c r="HE59" s="0"/>
+      <c r="HF59" s="0"/>
+      <c r="HG59" s="0"/>
+      <c r="HH59" s="0"/>
+      <c r="HI59" s="0"/>
+      <c r="HJ59" s="0"/>
+      <c r="HK59" s="0"/>
+      <c r="HL59" s="0"/>
+      <c r="HM59" s="0"/>
+      <c r="HN59" s="0"/>
+      <c r="HO59" s="0"/>
+      <c r="HP59" s="0"/>
+      <c r="HQ59" s="0"/>
+      <c r="HR59" s="0"/>
+      <c r="HS59" s="0"/>
+      <c r="HT59" s="0"/>
+      <c r="HU59" s="0"/>
+      <c r="HV59" s="0"/>
+      <c r="HW59" s="0"/>
+      <c r="HX59" s="0"/>
+      <c r="HY59" s="0"/>
+      <c r="HZ59" s="0"/>
+      <c r="IA59" s="0"/>
+      <c r="IB59" s="0"/>
+      <c r="IC59" s="0"/>
+      <c r="ID59" s="0"/>
+      <c r="IE59" s="0"/>
+      <c r="IF59" s="0"/>
+      <c r="IG59" s="0"/>
+      <c r="IH59" s="0"/>
+      <c r="II59" s="0"/>
+      <c r="IJ59" s="0"/>
+      <c r="IK59" s="0"/>
+      <c r="IL59" s="0"/>
+      <c r="IM59" s="0"/>
+      <c r="IN59" s="0"/>
+      <c r="IO59" s="0"/>
+      <c r="IP59" s="0"/>
+      <c r="IQ59" s="0"/>
+      <c r="IR59" s="0"/>
+      <c r="IS59" s="0"/>
+      <c r="IT59" s="0"/>
+      <c r="IU59" s="0"/>
+      <c r="IV59" s="0"/>
+      <c r="IW59" s="0"/>
+      <c r="IX59" s="0"/>
+      <c r="IY59" s="0"/>
+      <c r="IZ59" s="0"/>
+      <c r="JA59" s="0"/>
+      <c r="JB59" s="0"/>
+      <c r="JC59" s="0"/>
+      <c r="JD59" s="0"/>
+      <c r="JE59" s="0"/>
+      <c r="JF59" s="0"/>
+      <c r="JG59" s="0"/>
+      <c r="JH59" s="0"/>
+      <c r="JI59" s="0"/>
+      <c r="JJ59" s="0"/>
+      <c r="JK59" s="0"/>
+      <c r="JL59" s="0"/>
+      <c r="JM59" s="0"/>
+      <c r="JN59" s="0"/>
+      <c r="JO59" s="0"/>
+      <c r="JP59" s="0"/>
+      <c r="JQ59" s="0"/>
+      <c r="JR59" s="0"/>
+      <c r="JS59" s="0"/>
+      <c r="JT59" s="0"/>
+      <c r="JU59" s="0"/>
+      <c r="JV59" s="0"/>
+      <c r="JW59" s="0"/>
+      <c r="JX59" s="0"/>
+      <c r="JY59" s="0"/>
+      <c r="JZ59" s="0"/>
+      <c r="KA59" s="0"/>
+      <c r="KB59" s="0"/>
+      <c r="KC59" s="0"/>
+      <c r="KD59" s="0"/>
+      <c r="KE59" s="0"/>
+      <c r="KF59" s="0"/>
+      <c r="KG59" s="0"/>
+      <c r="KH59" s="0"/>
+      <c r="KI59" s="0"/>
+      <c r="KJ59" s="0"/>
+      <c r="KK59" s="0"/>
+      <c r="KL59" s="0"/>
+      <c r="KM59" s="0"/>
+      <c r="KN59" s="0"/>
+      <c r="KO59" s="0"/>
+      <c r="KP59" s="0"/>
+      <c r="KQ59" s="0"/>
+      <c r="KR59" s="0"/>
+      <c r="KS59" s="0"/>
+      <c r="KT59" s="0"/>
+      <c r="KU59" s="0"/>
+      <c r="KV59" s="0"/>
+      <c r="KW59" s="0"/>
+      <c r="KX59" s="0"/>
+      <c r="KY59" s="0"/>
+      <c r="KZ59" s="0"/>
+      <c r="LA59" s="0"/>
+      <c r="LB59" s="0"/>
+      <c r="LC59" s="0"/>
+      <c r="LD59" s="0"/>
+      <c r="LE59" s="0"/>
+      <c r="LF59" s="0"/>
+      <c r="LG59" s="0"/>
+      <c r="LH59" s="0"/>
+      <c r="LI59" s="0"/>
+      <c r="LJ59" s="0"/>
+      <c r="LK59" s="0"/>
+      <c r="LL59" s="0"/>
+      <c r="LM59" s="0"/>
+      <c r="LN59" s="0"/>
+      <c r="LO59" s="0"/>
+      <c r="LP59" s="0"/>
+      <c r="LQ59" s="0"/>
+      <c r="LR59" s="0"/>
+      <c r="LS59" s="0"/>
+      <c r="LT59" s="0"/>
+      <c r="LU59" s="0"/>
+      <c r="LV59" s="0"/>
+      <c r="LW59" s="0"/>
+      <c r="LX59" s="0"/>
+      <c r="LY59" s="0"/>
+      <c r="LZ59" s="0"/>
+      <c r="MA59" s="0"/>
+      <c r="MB59" s="0"/>
+      <c r="MC59" s="0"/>
+      <c r="MD59" s="0"/>
+      <c r="ME59" s="0"/>
+      <c r="MF59" s="0"/>
+      <c r="MG59" s="0"/>
+      <c r="MH59" s="0"/>
+      <c r="MI59" s="0"/>
+      <c r="MJ59" s="0"/>
+      <c r="MK59" s="0"/>
+      <c r="ML59" s="0"/>
+      <c r="MM59" s="0"/>
+      <c r="MN59" s="0"/>
+      <c r="MO59" s="0"/>
+      <c r="MP59" s="0"/>
+      <c r="MQ59" s="0"/>
+      <c r="MR59" s="0"/>
+      <c r="MS59" s="0"/>
+      <c r="MT59" s="0"/>
+      <c r="MU59" s="0"/>
+      <c r="MV59" s="0"/>
+      <c r="MW59" s="0"/>
+      <c r="MX59" s="0"/>
+      <c r="MY59" s="0"/>
+      <c r="MZ59" s="0"/>
+      <c r="NA59" s="0"/>
+      <c r="NB59" s="0"/>
+      <c r="NC59" s="0"/>
+      <c r="ND59" s="0"/>
+      <c r="NE59" s="0"/>
+      <c r="NF59" s="0"/>
+      <c r="NG59" s="0"/>
+      <c r="NH59" s="0"/>
+      <c r="NI59" s="0"/>
+      <c r="NJ59" s="0"/>
+      <c r="NK59" s="0"/>
+      <c r="NL59" s="0"/>
+      <c r="NM59" s="0"/>
+      <c r="NN59" s="0"/>
+      <c r="NO59" s="0"/>
+      <c r="NP59" s="0"/>
+      <c r="NQ59" s="0"/>
+      <c r="NR59" s="0"/>
+      <c r="NS59" s="0"/>
+      <c r="NT59" s="0"/>
+      <c r="NU59" s="0"/>
+      <c r="NV59" s="0"/>
+      <c r="NW59" s="0"/>
+      <c r="NX59" s="0"/>
+      <c r="NY59" s="0"/>
+      <c r="NZ59" s="0"/>
+      <c r="OA59" s="0"/>
+      <c r="OB59" s="0"/>
+      <c r="OC59" s="0"/>
+      <c r="OD59" s="0"/>
+      <c r="OE59" s="0"/>
+      <c r="OF59" s="0"/>
+      <c r="OG59" s="0"/>
+      <c r="OH59" s="0"/>
+      <c r="OI59" s="0"/>
+      <c r="OJ59" s="0"/>
+      <c r="OK59" s="0"/>
+      <c r="OL59" s="0"/>
+      <c r="OM59" s="0"/>
+      <c r="ON59" s="0"/>
+      <c r="OO59" s="0"/>
+      <c r="OP59" s="0"/>
+      <c r="OQ59" s="0"/>
+      <c r="OR59" s="0"/>
+      <c r="OS59" s="0"/>
+      <c r="OT59" s="0"/>
+      <c r="OU59" s="0"/>
+      <c r="OV59" s="0"/>
+      <c r="OW59" s="0"/>
+      <c r="OX59" s="0"/>
+      <c r="OY59" s="0"/>
+      <c r="OZ59" s="0"/>
+      <c r="PA59" s="0"/>
+      <c r="PB59" s="0"/>
+      <c r="PC59" s="0"/>
+      <c r="PD59" s="0"/>
+      <c r="PE59" s="0"/>
+      <c r="PF59" s="0"/>
+      <c r="PG59" s="0"/>
+      <c r="PH59" s="0"/>
+      <c r="PI59" s="0"/>
+      <c r="PJ59" s="0"/>
+      <c r="PK59" s="0"/>
+      <c r="PL59" s="0"/>
+      <c r="PM59" s="0"/>
+      <c r="PN59" s="0"/>
+      <c r="PO59" s="0"/>
+      <c r="PP59" s="0"/>
+      <c r="PQ59" s="0"/>
+      <c r="PR59" s="0"/>
+      <c r="PS59" s="0"/>
+      <c r="PT59" s="0"/>
+      <c r="PU59" s="0"/>
+      <c r="PV59" s="0"/>
+      <c r="PW59" s="0"/>
+      <c r="PX59" s="0"/>
+      <c r="PY59" s="0"/>
+      <c r="PZ59" s="0"/>
+      <c r="QA59" s="0"/>
+      <c r="QB59" s="0"/>
+      <c r="QC59" s="0"/>
+      <c r="QD59" s="0"/>
+      <c r="QE59" s="0"/>
+      <c r="QF59" s="0"/>
+      <c r="QG59" s="0"/>
+      <c r="QH59" s="0"/>
+      <c r="QI59" s="0"/>
+      <c r="QJ59" s="0"/>
+      <c r="QK59" s="0"/>
+      <c r="QL59" s="0"/>
+      <c r="QM59" s="0"/>
+      <c r="QN59" s="0"/>
+      <c r="QO59" s="0"/>
+      <c r="QP59" s="0"/>
+      <c r="QQ59" s="0"/>
+      <c r="QR59" s="0"/>
+      <c r="QS59" s="0"/>
+      <c r="QT59" s="0"/>
+      <c r="QU59" s="0"/>
+      <c r="QV59" s="0"/>
+      <c r="QW59" s="0"/>
+      <c r="QX59" s="0"/>
+      <c r="QY59" s="0"/>
+      <c r="QZ59" s="0"/>
+      <c r="RA59" s="0"/>
+      <c r="RB59" s="0"/>
+      <c r="RC59" s="0"/>
+      <c r="RD59" s="0"/>
+      <c r="RE59" s="0"/>
+      <c r="RF59" s="0"/>
+      <c r="RG59" s="0"/>
+      <c r="RH59" s="0"/>
+      <c r="RI59" s="0"/>
+      <c r="RJ59" s="0"/>
+      <c r="RK59" s="0"/>
+      <c r="RL59" s="0"/>
+      <c r="RM59" s="0"/>
+      <c r="RN59" s="0"/>
+      <c r="RO59" s="0"/>
+      <c r="RP59" s="0"/>
+      <c r="RQ59" s="0"/>
+      <c r="RR59" s="0"/>
+      <c r="RS59" s="0"/>
+      <c r="RT59" s="0"/>
+      <c r="RU59" s="0"/>
+      <c r="RV59" s="0"/>
+      <c r="RW59" s="0"/>
+      <c r="RX59" s="0"/>
+      <c r="RY59" s="0"/>
+      <c r="RZ59" s="0"/>
+      <c r="SA59" s="0"/>
+      <c r="SB59" s="0"/>
+      <c r="SC59" s="0"/>
+      <c r="SD59" s="0"/>
+      <c r="SE59" s="0"/>
+      <c r="SF59" s="0"/>
+      <c r="SG59" s="0"/>
+      <c r="SH59" s="0"/>
+      <c r="SI59" s="0"/>
+      <c r="SJ59" s="0"/>
+      <c r="SK59" s="0"/>
+      <c r="SL59" s="0"/>
+      <c r="SM59" s="0"/>
+      <c r="SN59" s="0"/>
+      <c r="SO59" s="0"/>
+      <c r="SP59" s="0"/>
+      <c r="SQ59" s="0"/>
+      <c r="SR59" s="0"/>
+      <c r="SS59" s="0"/>
+      <c r="ST59" s="0"/>
+      <c r="SU59" s="0"/>
+      <c r="SV59" s="0"/>
+      <c r="SW59" s="0"/>
+      <c r="SX59" s="0"/>
+      <c r="SY59" s="0"/>
+      <c r="SZ59" s="0"/>
+      <c r="TA59" s="0"/>
+      <c r="TB59" s="0"/>
+      <c r="TC59" s="0"/>
+      <c r="TD59" s="0"/>
+      <c r="TE59" s="0"/>
+      <c r="TF59" s="0"/>
+      <c r="TG59" s="0"/>
+      <c r="TH59" s="0"/>
+      <c r="TI59" s="0"/>
+      <c r="TJ59" s="0"/>
+      <c r="TK59" s="0"/>
+      <c r="TL59" s="0"/>
+      <c r="TM59" s="0"/>
+      <c r="TN59" s="0"/>
+      <c r="TO59" s="0"/>
+      <c r="TP59" s="0"/>
+      <c r="TQ59" s="0"/>
+      <c r="TR59" s="0"/>
+      <c r="TS59" s="0"/>
+      <c r="TT59" s="0"/>
+      <c r="TU59" s="0"/>
+      <c r="TV59" s="0"/>
+      <c r="TW59" s="0"/>
+      <c r="TX59" s="0"/>
+      <c r="TY59" s="0"/>
+      <c r="TZ59" s="0"/>
+      <c r="UA59" s="0"/>
+      <c r="UB59" s="0"/>
+      <c r="UC59" s="0"/>
+      <c r="UD59" s="0"/>
+      <c r="UE59" s="0"/>
+      <c r="UF59" s="0"/>
+      <c r="UG59" s="0"/>
+      <c r="UH59" s="0"/>
+      <c r="UI59" s="0"/>
+      <c r="UJ59" s="0"/>
+      <c r="UK59" s="0"/>
+      <c r="UL59" s="0"/>
+      <c r="UM59" s="0"/>
+      <c r="UN59" s="0"/>
+      <c r="UO59" s="0"/>
+      <c r="UP59" s="0"/>
+      <c r="UQ59" s="0"/>
+      <c r="UR59" s="0"/>
+      <c r="US59" s="0"/>
+      <c r="UT59" s="0"/>
+      <c r="UU59" s="0"/>
+      <c r="UV59" s="0"/>
+      <c r="UW59" s="0"/>
+      <c r="UX59" s="0"/>
+      <c r="UY59" s="0"/>
+      <c r="UZ59" s="0"/>
+      <c r="VA59" s="0"/>
+      <c r="VB59" s="0"/>
+      <c r="VC59" s="0"/>
+      <c r="VD59" s="0"/>
+      <c r="VE59" s="0"/>
+      <c r="VF59" s="0"/>
+      <c r="VG59" s="0"/>
+      <c r="VH59" s="0"/>
+      <c r="VI59" s="0"/>
+      <c r="VJ59" s="0"/>
+      <c r="VK59" s="0"/>
+      <c r="VL59" s="0"/>
+      <c r="VM59" s="0"/>
+      <c r="VN59" s="0"/>
+      <c r="VO59" s="0"/>
+      <c r="VP59" s="0"/>
+      <c r="VQ59" s="0"/>
+      <c r="VR59" s="0"/>
+      <c r="VS59" s="0"/>
+      <c r="VT59" s="0"/>
+      <c r="VU59" s="0"/>
+      <c r="VV59" s="0"/>
+      <c r="VW59" s="0"/>
+      <c r="VX59" s="0"/>
+      <c r="VY59" s="0"/>
+      <c r="VZ59" s="0"/>
+      <c r="WA59" s="0"/>
+      <c r="WB59" s="0"/>
+      <c r="WC59" s="0"/>
+      <c r="WD59" s="0"/>
+      <c r="WE59" s="0"/>
+      <c r="WF59" s="0"/>
+      <c r="WG59" s="0"/>
+      <c r="WH59" s="0"/>
+      <c r="WI59" s="0"/>
+      <c r="WJ59" s="0"/>
+      <c r="WK59" s="0"/>
+      <c r="WL59" s="0"/>
+      <c r="WM59" s="0"/>
+      <c r="WN59" s="0"/>
+      <c r="WO59" s="0"/>
+      <c r="WP59" s="0"/>
+      <c r="WQ59" s="0"/>
+      <c r="WR59" s="0"/>
+      <c r="WS59" s="0"/>
+      <c r="WT59" s="0"/>
+      <c r="WU59" s="0"/>
+      <c r="WV59" s="0"/>
+      <c r="WW59" s="0"/>
+      <c r="WX59" s="0"/>
+      <c r="WY59" s="0"/>
+      <c r="WZ59" s="0"/>
+      <c r="XA59" s="0"/>
+      <c r="XB59" s="0"/>
+      <c r="XC59" s="0"/>
+      <c r="XD59" s="0"/>
+      <c r="XE59" s="0"/>
+      <c r="XF59" s="0"/>
+      <c r="XG59" s="0"/>
+      <c r="XH59" s="0"/>
+      <c r="XI59" s="0"/>
+      <c r="XJ59" s="0"/>
+      <c r="XK59" s="0"/>
+      <c r="XL59" s="0"/>
+      <c r="XM59" s="0"/>
+      <c r="XN59" s="0"/>
+      <c r="XO59" s="0"/>
+      <c r="XP59" s="0"/>
+      <c r="XQ59" s="0"/>
+      <c r="XR59" s="0"/>
+      <c r="XS59" s="0"/>
+      <c r="XT59" s="0"/>
+      <c r="XU59" s="0"/>
+      <c r="XV59" s="0"/>
+      <c r="XW59" s="0"/>
+      <c r="XX59" s="0"/>
+      <c r="XY59" s="0"/>
+      <c r="XZ59" s="0"/>
+      <c r="YA59" s="0"/>
+      <c r="YB59" s="0"/>
+      <c r="YC59" s="0"/>
+      <c r="YD59" s="0"/>
+      <c r="YE59" s="0"/>
+      <c r="YF59" s="0"/>
+      <c r="YG59" s="0"/>
+      <c r="YH59" s="0"/>
+      <c r="YI59" s="0"/>
+      <c r="YJ59" s="0"/>
+      <c r="YK59" s="0"/>
+      <c r="YL59" s="0"/>
+      <c r="YM59" s="0"/>
+      <c r="YN59" s="0"/>
+      <c r="YO59" s="0"/>
+      <c r="YP59" s="0"/>
+      <c r="YQ59" s="0"/>
+      <c r="YR59" s="0"/>
+      <c r="YS59" s="0"/>
+      <c r="YT59" s="0"/>
+      <c r="YU59" s="0"/>
+      <c r="YV59" s="0"/>
+      <c r="YW59" s="0"/>
+      <c r="YX59" s="0"/>
+      <c r="YY59" s="0"/>
+      <c r="YZ59" s="0"/>
+      <c r="ZA59" s="0"/>
+      <c r="ZB59" s="0"/>
+      <c r="ZC59" s="0"/>
+      <c r="ZD59" s="0"/>
+      <c r="ZE59" s="0"/>
+      <c r="ZF59" s="0"/>
+      <c r="ZG59" s="0"/>
+      <c r="ZH59" s="0"/>
+      <c r="ZI59" s="0"/>
+      <c r="ZJ59" s="0"/>
+      <c r="ZK59" s="0"/>
+      <c r="ZL59" s="0"/>
+      <c r="ZM59" s="0"/>
+      <c r="ZN59" s="0"/>
+      <c r="ZO59" s="0"/>
+      <c r="ZP59" s="0"/>
+      <c r="ZQ59" s="0"/>
+      <c r="ZR59" s="0"/>
+      <c r="ZS59" s="0"/>
+      <c r="ZT59" s="0"/>
+      <c r="ZU59" s="0"/>
+      <c r="ZV59" s="0"/>
+      <c r="ZW59" s="0"/>
+      <c r="ZX59" s="0"/>
+      <c r="ZY59" s="0"/>
+      <c r="ZZ59" s="0"/>
+      <c r="AAA59" s="0"/>
+      <c r="AAB59" s="0"/>
+      <c r="AAC59" s="0"/>
+      <c r="AAD59" s="0"/>
+      <c r="AAE59" s="0"/>
+      <c r="AAF59" s="0"/>
+      <c r="AAG59" s="0"/>
+      <c r="AAH59" s="0"/>
+      <c r="AAI59" s="0"/>
+      <c r="AAJ59" s="0"/>
+      <c r="AAK59" s="0"/>
+      <c r="AAL59" s="0"/>
+      <c r="AAM59" s="0"/>
+      <c r="AAN59" s="0"/>
+      <c r="AAO59" s="0"/>
+      <c r="AAP59" s="0"/>
+      <c r="AAQ59" s="0"/>
+      <c r="AAR59" s="0"/>
+      <c r="AAS59" s="0"/>
+      <c r="AAT59" s="0"/>
+      <c r="AAU59" s="0"/>
+      <c r="AAV59" s="0"/>
+      <c r="AAW59" s="0"/>
+      <c r="AAX59" s="0"/>
+      <c r="AAY59" s="0"/>
+      <c r="AAZ59" s="0"/>
+      <c r="ABA59" s="0"/>
+      <c r="ABB59" s="0"/>
+      <c r="ABC59" s="0"/>
+      <c r="ABD59" s="0"/>
+      <c r="ABE59" s="0"/>
+      <c r="ABF59" s="0"/>
+      <c r="ABG59" s="0"/>
+      <c r="ABH59" s="0"/>
+      <c r="ABI59" s="0"/>
+      <c r="ABJ59" s="0"/>
+      <c r="ABK59" s="0"/>
+      <c r="ABL59" s="0"/>
+      <c r="ABM59" s="0"/>
+      <c r="ABN59" s="0"/>
+      <c r="ABO59" s="0"/>
+      <c r="ABP59" s="0"/>
+      <c r="ABQ59" s="0"/>
+      <c r="ABR59" s="0"/>
+      <c r="ABS59" s="0"/>
+      <c r="ABT59" s="0"/>
+      <c r="ABU59" s="0"/>
+      <c r="ABV59" s="0"/>
+      <c r="ABW59" s="0"/>
+      <c r="ABX59" s="0"/>
+      <c r="ABY59" s="0"/>
+      <c r="ABZ59" s="0"/>
+      <c r="ACA59" s="0"/>
+      <c r="ACB59" s="0"/>
+      <c r="ACC59" s="0"/>
+      <c r="ACD59" s="0"/>
+      <c r="ACE59" s="0"/>
+      <c r="ACF59" s="0"/>
+      <c r="ACG59" s="0"/>
+      <c r="ACH59" s="0"/>
+      <c r="ACI59" s="0"/>
+      <c r="ACJ59" s="0"/>
+      <c r="ACK59" s="0"/>
+      <c r="ACL59" s="0"/>
+      <c r="ACM59" s="0"/>
+      <c r="ACN59" s="0"/>
+      <c r="ACO59" s="0"/>
+      <c r="ACP59" s="0"/>
+      <c r="ACQ59" s="0"/>
+      <c r="ACR59" s="0"/>
+      <c r="ACS59" s="0"/>
+      <c r="ACT59" s="0"/>
+      <c r="ACU59" s="0"/>
+      <c r="ACV59" s="0"/>
+      <c r="ACW59" s="0"/>
+      <c r="ACX59" s="0"/>
+      <c r="ACY59" s="0"/>
+      <c r="ACZ59" s="0"/>
+      <c r="ADA59" s="0"/>
+      <c r="ADB59" s="0"/>
+      <c r="ADC59" s="0"/>
+      <c r="ADD59" s="0"/>
+      <c r="ADE59" s="0"/>
+      <c r="ADF59" s="0"/>
+      <c r="ADG59" s="0"/>
+      <c r="ADH59" s="0"/>
+      <c r="ADI59" s="0"/>
+      <c r="ADJ59" s="0"/>
+      <c r="ADK59" s="0"/>
+      <c r="ADL59" s="0"/>
+      <c r="ADM59" s="0"/>
+      <c r="ADN59" s="0"/>
+      <c r="ADO59" s="0"/>
+      <c r="ADP59" s="0"/>
+      <c r="ADQ59" s="0"/>
+      <c r="ADR59" s="0"/>
+      <c r="ADS59" s="0"/>
+      <c r="ADT59" s="0"/>
+      <c r="ADU59" s="0"/>
+      <c r="ADV59" s="0"/>
+      <c r="ADW59" s="0"/>
+      <c r="ADX59" s="0"/>
+      <c r="ADY59" s="0"/>
+      <c r="ADZ59" s="0"/>
+      <c r="AEA59" s="0"/>
+      <c r="AEB59" s="0"/>
+      <c r="AEC59" s="0"/>
+      <c r="AED59" s="0"/>
+      <c r="AEE59" s="0"/>
+      <c r="AEF59" s="0"/>
+      <c r="AEG59" s="0"/>
+      <c r="AEH59" s="0"/>
+      <c r="AEI59" s="0"/>
+      <c r="AEJ59" s="0"/>
+      <c r="AEK59" s="0"/>
+      <c r="AEL59" s="0"/>
+      <c r="AEM59" s="0"/>
+      <c r="AEN59" s="0"/>
+      <c r="AEO59" s="0"/>
+      <c r="AEP59" s="0"/>
+      <c r="AEQ59" s="0"/>
+      <c r="AER59" s="0"/>
+      <c r="AES59" s="0"/>
+      <c r="AET59" s="0"/>
+      <c r="AEU59" s="0"/>
+      <c r="AEV59" s="0"/>
+      <c r="AEW59" s="0"/>
+      <c r="AEX59" s="0"/>
+      <c r="AEY59" s="0"/>
+      <c r="AEZ59" s="0"/>
+      <c r="AFA59" s="0"/>
+      <c r="AFB59" s="0"/>
+      <c r="AFC59" s="0"/>
+      <c r="AFD59" s="0"/>
+      <c r="AFE59" s="0"/>
+      <c r="AFF59" s="0"/>
+      <c r="AFG59" s="0"/>
+      <c r="AFH59" s="0"/>
+      <c r="AFI59" s="0"/>
+      <c r="AFJ59" s="0"/>
+      <c r="AFK59" s="0"/>
+      <c r="AFL59" s="0"/>
+      <c r="AFM59" s="0"/>
+      <c r="AFN59" s="0"/>
+      <c r="AFO59" s="0"/>
+      <c r="AFP59" s="0"/>
+      <c r="AFQ59" s="0"/>
+      <c r="AFR59" s="0"/>
+      <c r="AFS59" s="0"/>
+      <c r="AFT59" s="0"/>
+      <c r="AFU59" s="0"/>
+      <c r="AFV59" s="0"/>
+      <c r="AFW59" s="0"/>
+      <c r="AFX59" s="0"/>
+      <c r="AFY59" s="0"/>
+      <c r="AFZ59" s="0"/>
+      <c r="AGA59" s="0"/>
+      <c r="AGB59" s="0"/>
+      <c r="AGC59" s="0"/>
+      <c r="AGD59" s="0"/>
+      <c r="AGE59" s="0"/>
+      <c r="AGF59" s="0"/>
+      <c r="AGG59" s="0"/>
+      <c r="AGH59" s="0"/>
+      <c r="AGI59" s="0"/>
+      <c r="AGJ59" s="0"/>
+      <c r="AGK59" s="0"/>
+      <c r="AGL59" s="0"/>
+      <c r="AGM59" s="0"/>
+      <c r="AGN59" s="0"/>
+      <c r="AGO59" s="0"/>
+      <c r="AGP59" s="0"/>
+      <c r="AGQ59" s="0"/>
+      <c r="AGR59" s="0"/>
+      <c r="AGS59" s="0"/>
+      <c r="AGT59" s="0"/>
+      <c r="AGU59" s="0"/>
+      <c r="AGV59" s="0"/>
+      <c r="AGW59" s="0"/>
+      <c r="AGX59" s="0"/>
+      <c r="AGY59" s="0"/>
+      <c r="AGZ59" s="0"/>
+      <c r="AHA59" s="0"/>
+      <c r="AHB59" s="0"/>
+      <c r="AHC59" s="0"/>
+      <c r="AHD59" s="0"/>
+      <c r="AHE59" s="0"/>
+      <c r="AHF59" s="0"/>
+      <c r="AHG59" s="0"/>
+      <c r="AHH59" s="0"/>
+      <c r="AHI59" s="0"/>
+      <c r="AHJ59" s="0"/>
+      <c r="AHK59" s="0"/>
+      <c r="AHL59" s="0"/>
+      <c r="AHM59" s="0"/>
+      <c r="AHN59" s="0"/>
+      <c r="AHO59" s="0"/>
+      <c r="AHP59" s="0"/>
+      <c r="AHQ59" s="0"/>
+      <c r="AHR59" s="0"/>
+      <c r="AHS59" s="0"/>
+      <c r="AHT59" s="0"/>
+      <c r="AHU59" s="0"/>
+      <c r="AHV59" s="0"/>
+      <c r="AHW59" s="0"/>
+      <c r="AHX59" s="0"/>
+      <c r="AHY59" s="0"/>
+      <c r="AHZ59" s="0"/>
+      <c r="AIA59" s="0"/>
+      <c r="AIB59" s="0"/>
+      <c r="AIC59" s="0"/>
+      <c r="AID59" s="0"/>
+      <c r="AIE59" s="0"/>
+      <c r="AIF59" s="0"/>
+      <c r="AIG59" s="0"/>
+      <c r="AIH59" s="0"/>
+      <c r="AII59" s="0"/>
+      <c r="AIJ59" s="0"/>
+      <c r="AIK59" s="0"/>
+      <c r="AIL59" s="0"/>
+      <c r="AIM59" s="0"/>
+      <c r="AIN59" s="0"/>
+      <c r="AIO59" s="0"/>
+      <c r="AIP59" s="0"/>
+      <c r="AIQ59" s="0"/>
+      <c r="AIR59" s="0"/>
+      <c r="AIS59" s="0"/>
+      <c r="AIT59" s="0"/>
+      <c r="AIU59" s="0"/>
+      <c r="AIV59" s="0"/>
+      <c r="AIW59" s="0"/>
+      <c r="AIX59" s="0"/>
+      <c r="AIY59" s="0"/>
+      <c r="AIZ59" s="0"/>
+      <c r="AJA59" s="0"/>
+      <c r="AJB59" s="0"/>
+      <c r="AJC59" s="0"/>
+      <c r="AJD59" s="0"/>
+      <c r="AJE59" s="0"/>
+      <c r="AJF59" s="0"/>
+      <c r="AJG59" s="0"/>
+      <c r="AJH59" s="0"/>
+      <c r="AJI59" s="0"/>
+      <c r="AJJ59" s="0"/>
+      <c r="AJK59" s="0"/>
+      <c r="AJL59" s="0"/>
+      <c r="AJM59" s="0"/>
+      <c r="AJN59" s="0"/>
+      <c r="AJO59" s="0"/>
+      <c r="AJP59" s="0"/>
+      <c r="AJQ59" s="0"/>
+      <c r="AJR59" s="0"/>
+      <c r="AJS59" s="0"/>
+      <c r="AJT59" s="0"/>
+      <c r="AJU59" s="0"/>
+      <c r="AJV59" s="0"/>
+      <c r="AJW59" s="0"/>
+      <c r="AJX59" s="0"/>
+      <c r="AJY59" s="0"/>
+      <c r="AJZ59" s="0"/>
+      <c r="AKA59" s="0"/>
+      <c r="AKB59" s="0"/>
+      <c r="AKC59" s="0"/>
+      <c r="AKD59" s="0"/>
+      <c r="AKE59" s="0"/>
+      <c r="AKF59" s="0"/>
+      <c r="AKG59" s="0"/>
+      <c r="AKH59" s="0"/>
+      <c r="AKI59" s="0"/>
+      <c r="AKJ59" s="0"/>
+      <c r="AKK59" s="0"/>
+      <c r="AKL59" s="0"/>
+      <c r="AKM59" s="0"/>
+      <c r="AKN59" s="0"/>
+      <c r="AKO59" s="0"/>
+      <c r="AKP59" s="0"/>
+      <c r="AKQ59" s="0"/>
+      <c r="AKR59" s="0"/>
+      <c r="AKS59" s="0"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="27" t="s">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="27" t="s">
         <v>365</v>
       </c>
-      <c r="B61" s="34"/>
-      <c r="C61" s="32" t="n">
+      <c r="B60" s="34"/>
+      <c r="C60" s="32" t="n">
         <v>0.111752482105749</v>
       </c>
-      <c r="D61" s="32" t="n">
+      <c r="D60" s="32" t="n">
         <v>0.0348649272685292</v>
       </c>
-      <c r="E61" s="32" t="n">
+      <c r="E60" s="32" t="n">
         <v>0.297852689909952</v>
       </c>
-      <c r="F61" s="32" t="n">
+      <c r="F60" s="32" t="n">
         <v>0.262756869083353</v>
       </c>
-      <c r="G61" s="32" t="n">
+      <c r="G60" s="32" t="n">
         <v>0.0277072269683676</v>
       </c>
-      <c r="H61" s="32" t="n">
+      <c r="H60" s="32" t="n">
         <v>0.0764257677210806</v>
       </c>
-      <c r="I61" s="32" t="n">
+      <c r="I60" s="32" t="n">
         <v>0.188640036942969</v>
       </c>
-      <c r="J61" s="29" t="n">
+      <c r="J60" s="29" t="n">
         <v>0.0113137843454168</v>
       </c>
-      <c r="K61" s="29" t="n">
+      <c r="K60" s="29" t="n">
         <v>0.00738859385823136</v>
       </c>
-      <c r="L61" s="29" t="n">
+      <c r="L60" s="29" t="n">
         <v>0.00323250981297622</v>
       </c>
-      <c r="M61" s="29" t="n">
+      <c r="M60" s="29" t="n">
         <v>0.111752482105749</v>
       </c>
-      <c r="N61" s="29" t="n">
+      <c r="N60" s="29" t="n">
         <v>0.00831216809051027</v>
       </c>
-      <c r="O61" s="29" t="n">
+      <c r="O60" s="29" t="n">
         <v>0.126760563380282</v>
       </c>
-      <c r="P61" s="29" t="n">
+      <c r="P60" s="29" t="n">
         <v>0.297852689909952</v>
       </c>
-      <c r="Q61" s="29" t="n">
+      <c r="Q60" s="29" t="n">
         <v>0.00023089355806973</v>
       </c>
-      <c r="R61" s="29" t="n">
+      <c r="R60" s="29" t="n">
         <v>0.0143154006003233</v>
       </c>
-      <c r="S61" s="29" t="n">
+      <c r="S60" s="29" t="n">
         <v>0.00069268067420919</v>
       </c>
-      <c r="T61" s="29" t="n">
+      <c r="T60" s="29" t="n">
         <v>0.012006465019626</v>
       </c>
-      <c r="U61" s="29" t="n">
+      <c r="U60" s="29" t="n">
         <v>0.0277072269683676</v>
       </c>
-      <c r="V61" s="29" t="n">
+      <c r="V60" s="29" t="n">
         <v>0.0348649272685292</v>
       </c>
-      <c r="W61" s="29" t="n">
+      <c r="W60" s="29" t="n">
         <v>0.0764257677210806</v>
       </c>
-      <c r="X61" s="35" t="n">
+      <c r="X60" s="35" t="n">
         <v>0.262756869083353</v>
       </c>
-      <c r="Y61" s="29" t="n">
+      <c r="Y60" s="29" t="n">
         <v>0.00300161625490649</v>
       </c>
-      <c r="Z61" s="29" t="n">
+      <c r="Z60" s="29" t="n">
         <v>0.00046178711613946</v>
       </c>
-      <c r="AA61" s="29" t="n">
+      <c r="AA60" s="29" t="n">
         <v>0.00069268067420919</v>
       </c>
-      <c r="AB61" s="30" t="n">
+      <c r="AB60" s="30" t="n">
         <v>0.103209420457169</v>
       </c>
-      <c r="AC61" s="30" t="n">
+      <c r="AC60" s="30" t="n">
         <v>0.139921496190256</v>
       </c>
-      <c r="AD61" s="30" t="n">
+      <c r="AD60" s="30" t="n">
         <v>0.142461325329023</v>
       </c>
-      <c r="AE61" s="30" t="n">
+      <c r="AE60" s="30" t="n">
         <v>0.11983375663819</v>
       </c>
-      <c r="AF61" s="30" t="n">
+      <c r="AF60" s="30" t="n">
         <v>0.124682521357654</v>
       </c>
-      <c r="AG61" s="30" t="n">
+      <c r="AG60" s="30" t="n">
         <v>0.0882013391826368</v>
       </c>
-      <c r="AH61" s="30" t="n">
+      <c r="AH60" s="30" t="n">
         <v>0.0898175940891249</v>
       </c>
-      <c r="AI61" s="30" t="n">
+      <c r="AI60" s="30" t="n">
         <v>0.0450242438235973</v>
       </c>
-      <c r="AJ61" s="30" t="n">
+      <c r="AJ60" s="30" t="n">
         <v>0.0348649272685292</v>
       </c>
-      <c r="AK61" s="30" t="n">
+      <c r="AK60" s="30" t="n">
         <v>0.111983375663819</v>
       </c>
-      <c r="AL61" s="36" t="n">
+      <c r="AL60" s="36" t="n">
         <v>0.105518356037867</v>
       </c>
-      <c r="AM61" s="36" t="n">
+      <c r="AM60" s="36" t="n">
         <v>0.0879704456245671</v>
       </c>
-      <c r="AN61" s="36" t="n">
+      <c r="AN60" s="36" t="n">
         <v>0.217732625259755</v>
       </c>
-      <c r="AO61" s="36" t="n">
+      <c r="AO60" s="36" t="n">
         <v>0.123528053567305</v>
       </c>
-      <c r="AP61" s="36" t="n">
+      <c r="AP60" s="36" t="n">
         <v>0.101131378434542</v>
       </c>
-      <c r="AQ61" s="36" t="n">
+      <c r="AQ60" s="36" t="n">
         <v>0.219348880166243</v>
       </c>
-      <c r="AR61" s="36" t="n">
+      <c r="AR60" s="36" t="n">
         <v>0.0664973447240822</v>
       </c>
-      <c r="AS61" s="36" t="n">
+      <c r="AS60" s="36" t="n">
         <v>0.0782729161856384</v>
       </c>
     </row>
@@ -12900,7 +13874,7 @@
       <selection pane="topLeft" activeCell="I117" activeCellId="0" sqref="I117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="37" width="14.57"/>
@@ -32841,7 +33815,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="25" width="17.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="25" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="14" style="25" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="25" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="25" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="22" style="25" width="17.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="25" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="25" width="16.71"/>
@@ -58178,7 +59152,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="17.71"/>
@@ -61500,32 +62474,32 @@
   </sheetPr>
   <dimension ref="A1:BC55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D64" activeCellId="0" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="4" style="0" width="20.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="4" style="0" width="20.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="20.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="20.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="31" style="0" width="20.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="31" style="0" width="20.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="20.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="20.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="37" style="0" width="20.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="37" style="0" width="20.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="20.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="20.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="20.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="20.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="20.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="45" style="0" width="20.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="45" style="0" width="20.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="50" style="0" width="20.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="50" style="0" width="20.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
